--- a/stat_outline.xlsx
+++ b/stat_outline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mkausch\repos\3500\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mkausch\repos\3500\project\CMPS3500Proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD22257-833E-423B-9863-FFFA379853E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9BDA62-2DAE-4042-9E77-DE2DE48AF89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="3510" windowWidth="21600" windowHeight="11235" xr2:uid="{51A21A61-079D-4E2D-9338-D44BF21F39F8}"/>
+    <workbookView xWindow="8580" yWindow="1605" windowWidth="14370" windowHeight="13200" xr2:uid="{51A21A61-079D-4E2D-9338-D44BF21F39F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="77">
   <si>
     <t>Column Name</t>
   </si>
@@ -227,13 +227,52 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Part 1-2</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>Arr Index</t>
+  </si>
+  <si>
+    <t>Unnamed</t>
+  </si>
+  <si>
+    <t>Some other index, not included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown wasn't included - either a 1 or 2 </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>year - not included on manual</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Read Criteria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,16 +288,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -266,17 +328,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,286 +677,1283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D457EC5-9938-499A-9179-3F02E8496AD8}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="O1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" t="s">
+        <v>63</v>
+      </c>
+      <c r="M30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/stat_outline.xlsx
+++ b/stat_outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mkausch\repos\3500\project\CMPS3500Proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9BDA62-2DAE-4042-9E77-DE2DE48AF89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBF8E5C-7BA9-4D47-AE4E-CAF556D94C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="1605" windowWidth="14370" windowHeight="13200" xr2:uid="{51A21A61-079D-4E2D-9338-D44BF21F39F8}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51A21A61-079D-4E2D-9338-D44BF21F39F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="77">
   <si>
     <t>Column Name</t>
   </si>
@@ -679,11 +679,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D457EC5-9938-499A-9179-3F02E8496AD8}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,6 +1100,12 @@
       <c r="K10" t="s">
         <v>75</v>
       </c>
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1374,6 +1380,12 @@
       </c>
       <c r="I17" t="s">
         <v>63</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
       </c>
       <c r="L17" t="s">
         <v>63</v>
